--- a/xlsx/克莱·舍基_intext.xlsx
+++ b/xlsx/克莱·舍基_intext.xlsx
@@ -29,13 +29,13 @@
     <t>奥莱理</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_克莱·舍基</t>
+    <t>政策_政策_维基百科_克莱·舍基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新媒體</t>
+    <t>新媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E7%BD%91%E7%BB%9C</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BA%BF</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E5%B0%8D%E9%BB%9E%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>點對點技術</t>
+    <t>点对点技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Web%E6%9C%8D%E5%8A%A1</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%BE%9E%E5%BC%8F%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>主從式架構</t>
+    <t>主从式架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
